--- a/data/trans_orig/IMC-Nacimiento-trans_orig.xlsx
+++ b/data/trans_orig/IMC-Nacimiento-trans_orig.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>IMC Adultos (tasa de respuesta: 96,87%)</t>
+          <t>Índice de Masa Corporal (IMC) medio de la población (tasa de respuesta: 96,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
